--- a/apps/load_data/2020/06/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/06/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2020\HHY0620\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY0620\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{185B539E-E14E-4C85-B1F9-9A9A28D0E9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC3FCB5-432A-4FDE-A0D7-F4E432AEEC59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$260</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$260</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11515" uniqueCount="3409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11494" uniqueCount="3406">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7414,9 +7415,6 @@
     <t>0070A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8785,9 +8783,6 @@
     <t>0005A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -9086,9 +9081,6 @@
   </si>
   <si>
     <t>0122A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10255,7 +10247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11095,10 +11087,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD182" sqref="AD182"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44115,12 +44109,7 @@
       <c r="AB173" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -44173,7 +44162,7 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BE173" s="1" t="s">
         <v>114</v>
@@ -44185,10 +44174,10 @@
         <v>116</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>119</v>
@@ -44203,13 +44192,13 @@
         <v>166</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>123</v>
@@ -44230,19 +44219,19 @@
         <v>111</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>131</v>
@@ -44280,19 +44269,19 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="Q174" s="3">
         <v>27241</v>
@@ -44318,12 +44307,7 @@
       <c r="AB174" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -44370,7 +44354,7 @@
         <v>111</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BB174" s="1">
         <v>6</v>
@@ -44379,7 +44363,7 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BE174" s="1" t="s">
         <v>114</v>
@@ -44391,7 +44375,7 @@
         <v>116</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BM174" s="1" t="s">
         <v>119</v>
@@ -44403,13 +44387,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>123</v>
@@ -44433,16 +44417,16 @@
         <v>111</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>2150</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>131</v>
@@ -44483,19 +44467,19 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2488</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="Q175" s="3">
         <v>25223</v>
@@ -44521,12 +44505,7 @@
       <c r="AB175" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -44573,7 +44552,7 @@
         <v>111</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BB175" s="1">
         <v>6</v>
@@ -44582,7 +44561,7 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BE175" s="1" t="s">
         <v>114</v>
@@ -44594,10 +44573,10 @@
         <v>116</v>
       </c>
       <c r="BH175" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="BI175" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>119</v>
@@ -44612,13 +44591,13 @@
         <v>166</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>123</v>
@@ -44642,19 +44621,19 @@
         <v>111</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="CG175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2499</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2500</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>131</v>
@@ -44692,19 +44671,19 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="Q176" s="3">
         <v>27018</v>
@@ -44727,12 +44706,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -44782,7 +44756,7 @@
         <v>111</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BB176" s="1">
         <v>6</v>
@@ -44791,7 +44765,7 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BE176" s="1" t="s">
         <v>114</v>
@@ -44803,7 +44777,7 @@
         <v>116</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>1008</v>
@@ -44815,7 +44789,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>123</v>
@@ -44833,16 +44807,16 @@
         <v>111</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2511</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>1014</v>
@@ -44883,19 +44857,19 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="Q177" s="3">
         <v>29037</v>
@@ -44921,12 +44895,7 @@
       <c r="AB177" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -44976,7 +44945,7 @@
         <v>111</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BB177" s="1">
         <v>6</v>
@@ -44985,7 +44954,7 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BE177" s="1" t="s">
         <v>114</v>
@@ -44997,7 +44966,7 @@
         <v>116</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>398</v>
@@ -45009,7 +44978,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>123</v>
@@ -45030,13 +44999,13 @@
         <v>729</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>405</v>
@@ -45077,19 +45046,19 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2525</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="Q178" s="3">
         <v>26647</v>
@@ -45112,12 +45081,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -45167,7 +45131,7 @@
         <v>111</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BB178" s="1">
         <v>6</v>
@@ -45176,7 +45140,7 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BE178" s="1" t="s">
         <v>114</v>
@@ -45188,7 +45152,7 @@
         <v>116</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>1022</v>
@@ -45200,7 +45164,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>123</v>
@@ -45218,16 +45182,16 @@
         <v>111</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2532</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2533</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>1027</v>
@@ -45268,19 +45232,19 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2536</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="Q179" s="3">
         <v>25405</v>
@@ -45309,12 +45273,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -45361,7 +45320,7 @@
         <v>111</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BB179" s="1">
         <v>6</v>
@@ -45370,7 +45329,7 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BE179" s="1" t="s">
         <v>114</v>
@@ -45382,7 +45341,7 @@
         <v>116</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>270</v>
@@ -45397,13 +45356,13 @@
         <v>120</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>123</v>
@@ -45421,16 +45380,16 @@
         <v>111</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2546</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>278</v>
@@ -45471,19 +45430,19 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="Q180" s="3">
         <v>28845</v>
@@ -45506,12 +45465,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -45561,7 +45515,7 @@
         <v>111</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BB180" s="1">
         <v>6</v>
@@ -45570,7 +45524,7 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BE180" s="1" t="s">
         <v>114</v>
@@ -45582,7 +45536,7 @@
         <v>116</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>1022</v>
@@ -45594,7 +45548,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>123</v>
@@ -45612,16 +45566,16 @@
         <v>111</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>1027</v>
@@ -45662,19 +45616,19 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="Q181" s="3">
         <v>21425</v>
@@ -45697,12 +45651,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -45752,7 +45701,7 @@
         <v>111</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BB181" s="1">
         <v>6</v>
@@ -45761,7 +45710,7 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BE181" s="1" t="s">
         <v>114</v>
@@ -45773,7 +45722,7 @@
         <v>116</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BM181" s="1" t="s">
         <v>119</v>
@@ -45785,7 +45734,7 @@
         <v>166</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>123</v>
@@ -45803,16 +45752,16 @@
         <v>111</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2570</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>131</v>
@@ -45853,19 +45802,19 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="Q182" s="3">
         <v>23039</v>
@@ -45888,12 +45837,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -45940,7 +45884,7 @@
         <v>111</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BB182" s="1">
         <v>6</v>
@@ -45949,7 +45893,7 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BE182" s="1" t="s">
         <v>114</v>
@@ -45961,10 +45905,10 @@
         <v>116</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>119</v>
@@ -45976,13 +45920,13 @@
         <v>237</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BS182" s="3">
         <v>34307</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>123</v>
@@ -46000,19 +45944,19 @@
         <v>111</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>446</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2583</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2584</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>131</v>
@@ -46026,13 +45970,13 @@
         <v>88</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>111</v>
@@ -46044,25 +45988,25 @@
         <v>94</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="Q183" s="3">
         <v>23286</v>
@@ -46088,12 +46032,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -46143,7 +46082,7 @@
         <v>111</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BB183" s="1">
         <v>6</v>
@@ -46152,7 +46091,7 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BE183" s="1" t="s">
         <v>114</v>
@@ -46164,7 +46103,7 @@
         <v>116</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BM183" s="1" t="s">
         <v>119</v>
@@ -46173,7 +46112,7 @@
         <v>105</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>123</v>
@@ -46194,16 +46133,16 @@
         <v>111</v>
       </c>
       <c r="CC183" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="CD183" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="CD183" s="1" t="s">
+      <c r="CE183" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CG183" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>131</v>
@@ -46244,19 +46183,19 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="Q184" s="3">
         <v>26907</v>
@@ -46279,12 +46218,7 @@
       <c r="AA184" s="1">
         <v>0</v>
       </c>
-      <c r="AC184" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD184" s="1" t="s">
-        <v>2463</v>
-      </c>
+      <c r="AC184" s="3"/>
       <c r="AF184" s="1" t="s">
         <v>106</v>
       </c>
@@ -46331,7 +46265,7 @@
         <v>111</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BB184" s="1">
         <v>6</v>
@@ -46340,7 +46274,7 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BE184" s="1" t="s">
         <v>114</v>
@@ -46352,10 +46286,10 @@
         <v>116</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>119</v>
@@ -46367,13 +46301,13 @@
         <v>120</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BS184" s="3">
         <v>35950</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>123</v>
@@ -46391,19 +46325,19 @@
         <v>111</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>1941</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="CG184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>131</v>
@@ -46441,19 +46375,19 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="Q185" s="3">
         <v>28642</v>
@@ -46528,7 +46462,7 @@
         <v>111</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BB185" s="1">
         <v>6</v>
@@ -46537,7 +46471,7 @@
         <v>20</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BE185" s="1" t="s">
         <v>114</v>
@@ -46549,7 +46483,7 @@
         <v>116</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>2032</v>
@@ -46564,7 +46498,7 @@
         <v>166</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>123</v>
@@ -46582,16 +46516,16 @@
         <v>111</v>
       </c>
       <c r="CC185" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="CD185" s="1" t="s">
         <v>446</v>
       </c>
       <c r="CE185" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="CG185" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>2039</v>
@@ -46632,19 +46566,19 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="Q186" s="3">
         <v>28239</v>
@@ -46713,7 +46647,7 @@
         <v>111</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BB186" s="1">
         <v>6</v>
@@ -46722,7 +46656,7 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BE186" s="1" t="s">
         <v>114</v>
@@ -46734,7 +46668,7 @@
         <v>116</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>1996</v>
@@ -46749,13 +46683,13 @@
         <v>237</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BS186" s="3">
         <v>36099</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>123</v>
@@ -46773,16 +46707,16 @@
         <v>111</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>2002</v>
@@ -46823,19 +46757,19 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="Q187" s="3">
         <v>25589</v>
@@ -46904,7 +46838,7 @@
         <v>111</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BB187" s="1">
         <v>6</v>
@@ -46913,7 +46847,7 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BE187" s="1" t="s">
         <v>114</v>
@@ -46925,10 +46859,10 @@
         <v>116</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>119</v>
@@ -46940,13 +46874,13 @@
         <v>102</v>
       </c>
       <c r="BR187" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BS187" s="3">
         <v>37735</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>123</v>
@@ -46964,19 +46898,19 @@
         <v>111</v>
       </c>
       <c r="CC187" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="CD187" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="CD187" s="1" t="s">
+      <c r="CE187" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="CG187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="CH187" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="CI187" s="1" t="s">
         <v>131</v>
@@ -47014,19 +46948,19 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="Q188" s="3">
         <v>29170</v>
@@ -47098,7 +47032,7 @@
         <v>111</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BB188" s="1">
         <v>6</v>
@@ -47107,7 +47041,7 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>114</v>
@@ -47119,7 +47053,7 @@
         <v>116</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>119</v>
@@ -47128,7 +47062,7 @@
         <v>105</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>123</v>
@@ -47146,16 +47080,16 @@
         <v>111</v>
       </c>
       <c r="CC188" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="CD188" s="1" t="s">
         <v>945</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2663</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2664</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>131</v>
@@ -47178,7 +47112,7 @@
         <v>192</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>111</v>
@@ -47190,25 +47124,25 @@
         <v>94</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="Q189" s="3">
         <v>27250</v>
@@ -47238,7 +47172,7 @@
         <v>106</v>
       </c>
       <c r="AG189" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="AH189" s="1" t="s">
         <v>2067</v>
@@ -47283,7 +47217,7 @@
         <v>111</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BB189" s="1">
         <v>6</v>
@@ -47292,7 +47226,7 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>114</v>
@@ -47304,7 +47238,7 @@
         <v>116</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>119</v>
@@ -47313,7 +47247,7 @@
         <v>105</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>123</v>
@@ -47322,7 +47256,7 @@
         <v>0</v>
       </c>
       <c r="BZ189" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="CA189" s="1" t="s">
         <v>125</v>
@@ -47334,13 +47268,13 @@
         <v>1718</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2679</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>131</v>
@@ -47381,19 +47315,19 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2682</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="Q190" s="3">
         <v>27999</v>
@@ -47465,7 +47399,7 @@
         <v>111</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="BB190" s="1">
         <v>6</v>
@@ -47474,7 +47408,7 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>114</v>
@@ -47486,10 +47420,10 @@
         <v>116</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2686</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2687</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>119</v>
@@ -47501,13 +47435,13 @@
         <v>102</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BS190" s="3">
         <v>43602</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>123</v>
@@ -47531,13 +47465,13 @@
         <v>1040</v>
       </c>
       <c r="CE190" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="CG190" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="CG190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2691</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2692</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>131</v>
@@ -47575,19 +47509,19 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2694</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2695</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="Q191" s="3">
         <v>29305</v>
@@ -47659,7 +47593,7 @@
         <v>111</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BB191" s="1">
         <v>6</v>
@@ -47668,7 +47602,7 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>114</v>
@@ -47680,7 +47614,7 @@
         <v>116</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>1022</v>
@@ -47692,7 +47626,7 @@
         <v>105</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>123</v>
@@ -47710,16 +47644,16 @@
         <v>111</v>
       </c>
       <c r="CC191" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="CD191" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="CD191" s="1" t="s">
+      <c r="CE191" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CG191" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>1027</v>
@@ -47760,19 +47694,19 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2707</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="Q192" s="3">
         <v>23125</v>
@@ -47805,7 +47739,7 @@
         <v>42247</v>
       </c>
       <c r="AD192" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="AF192" s="1" t="s">
         <v>106</v>
@@ -47859,7 +47793,7 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>114</v>
@@ -47871,10 +47805,10 @@
         <v>116</v>
       </c>
       <c r="BH192" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="BI192" s="1" t="s">
         <v>2711</v>
-      </c>
-      <c r="BI192" s="1" t="s">
-        <v>2712</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>119</v>
@@ -47886,13 +47820,13 @@
         <v>237</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BS192" s="3">
         <v>36580</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>123</v>
@@ -47913,7 +47847,7 @@
         <v>111</v>
       </c>
       <c r="CC192" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="CD192" s="1" t="s">
         <v>307</v>
@@ -47922,10 +47856,10 @@
         <v>1749</v>
       </c>
       <c r="CG192" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="CH192" s="1" t="s">
         <v>2716</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2717</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>131</v>
@@ -47963,19 +47897,19 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="Q193" s="3">
         <v>30023</v>
@@ -48050,7 +47984,7 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>114</v>
@@ -48062,7 +47996,7 @@
         <v>116</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>1985</v>
@@ -48077,13 +48011,13 @@
         <v>120</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="BS193" s="3">
         <v>37747</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>123</v>
@@ -48107,10 +48041,10 @@
         <v>716</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="CG193" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>1989</v>
@@ -48151,19 +48085,19 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2729</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2730</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="Q194" s="3">
         <v>26205</v>
@@ -48241,7 +48175,7 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>114</v>
@@ -48253,7 +48187,7 @@
         <v>116</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>119</v>
@@ -48262,7 +48196,7 @@
         <v>105</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>123</v>
@@ -48280,16 +48214,16 @@
         <v>111</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2737</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>131</v>
@@ -48330,19 +48264,19 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="Q195" s="3">
         <v>31662</v>
@@ -48420,7 +48354,7 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>114</v>
@@ -48432,7 +48366,7 @@
         <v>116</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>119</v>
@@ -48441,7 +48375,7 @@
         <v>166</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>123</v>
@@ -48459,16 +48393,16 @@
         <v>111</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2748</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2749</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>131</v>
@@ -48509,19 +48443,19 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2751</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2752</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="Q196" s="3">
         <v>29117</v>
@@ -48596,7 +48530,7 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>114</v>
@@ -48608,10 +48542,10 @@
         <v>116</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>119</v>
@@ -48623,13 +48557,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BS196" s="3">
         <v>37334</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>123</v>
@@ -48650,16 +48584,16 @@
         <v>551</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2761</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2762</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>131</v>
@@ -48697,19 +48631,19 @@
         <v>408</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2764</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2765</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="Q197" s="3">
         <v>30007</v>
@@ -48784,7 +48718,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>114</v>
@@ -48796,7 +48730,7 @@
         <v>116</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>2223</v>
@@ -48811,13 +48745,13 @@
         <v>102</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BS197" s="3">
         <v>37904</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>123</v>
@@ -48838,13 +48772,13 @@
         <v>1040</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2772</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>2229</v>
@@ -48867,7 +48801,7 @@
         <v>192</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>111</v>
@@ -48879,25 +48813,25 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2775</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2776</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="Q198" s="3">
         <v>26221</v>
@@ -48972,7 +48906,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>114</v>
@@ -48984,7 +48918,7 @@
         <v>116</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>119</v>
@@ -48996,13 +48930,13 @@
         <v>120</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BS198" s="3">
         <v>36111</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>123</v>
@@ -49011,7 +48945,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>125</v>
@@ -49020,16 +48954,16 @@
         <v>111</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="CD198" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="CG198" s="1" t="s">
         <v>2783</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2784</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>131</v>
@@ -49070,19 +49004,19 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2786</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2787</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="Q199" s="3">
         <v>27571</v>
@@ -49157,7 +49091,7 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>114</v>
@@ -49169,7 +49103,7 @@
         <v>116</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>2032</v>
@@ -49184,13 +49118,13 @@
         <v>120</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="BS199" s="3">
         <v>37785</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>123</v>
@@ -49208,16 +49142,16 @@
         <v>111</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2794</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2795</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2796</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>2039</v>
@@ -49234,10 +49168,10 @@
         <v>88</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>154</v>
@@ -49252,25 +49186,25 @@
         <v>94</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2800</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2801</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="Q200" s="3">
         <v>30041</v>
@@ -49348,7 +49282,7 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>114</v>
@@ -49360,7 +49294,7 @@
         <v>116</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>119</v>
@@ -49369,7 +49303,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>123</v>
@@ -49378,7 +49312,7 @@
         <v>0</v>
       </c>
       <c r="BZ200" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="CA200" s="1" t="s">
         <v>125</v>
@@ -49390,13 +49324,13 @@
         <v>1362</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2808</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2809</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>131</v>
@@ -49437,19 +49371,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2811</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2812</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="Q201" s="3">
         <v>30993</v>
@@ -49521,7 +49455,7 @@
         <v>111</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BB201" s="1">
         <v>6</v>
@@ -49530,7 +49464,7 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>114</v>
@@ -49542,7 +49476,7 @@
         <v>116</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>119</v>
@@ -49551,7 +49485,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>123</v>
@@ -49569,16 +49503,16 @@
         <v>111</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2820</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2821</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>131</v>
@@ -49619,19 +49553,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2824</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="Q202" s="3">
         <v>30065</v>
@@ -49703,7 +49637,7 @@
         <v>111</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="BB202" s="1">
         <v>6</v>
@@ -49712,7 +49646,7 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>114</v>
@@ -49724,7 +49658,7 @@
         <v>116</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1985</v>
@@ -49736,7 +49670,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>123</v>
@@ -49754,16 +49688,16 @@
         <v>111</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2830</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2831</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1989</v>
@@ -49804,19 +49738,19 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2833</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2834</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="Q203" s="3">
         <v>30033</v>
@@ -49888,7 +49822,7 @@
         <v>111</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="BB203" s="1">
         <v>6</v>
@@ -49897,7 +49831,7 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>114</v>
@@ -49909,7 +49843,7 @@
         <v>116</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>119</v>
@@ -49918,7 +49852,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>123</v>
@@ -49939,13 +49873,13 @@
         <v>1208</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="CE203" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2841</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2842</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>131</v>
@@ -49986,19 +49920,19 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2844</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2845</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="Q204" s="3">
         <v>29411</v>
@@ -50070,7 +50004,7 @@
         <v>111</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="BB204" s="1">
         <v>6</v>
@@ -50079,7 +50013,7 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>114</v>
@@ -50091,7 +50025,7 @@
         <v>116</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>1985</v>
@@ -50109,13 +50043,13 @@
         <v>166</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="BS204" s="3">
         <v>37513</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>123</v>
@@ -50133,16 +50067,16 @@
         <v>111</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>127</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2853</v>
-      </c>
-      <c r="CG204" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="CH204" s="1" t="s">
         <v>1989</v>
@@ -50183,19 +50117,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2856</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2857</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="Q205" s="3">
         <v>32173</v>
@@ -50270,7 +50204,7 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>114</v>
@@ -50282,7 +50216,7 @@
         <v>116</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2223</v>
@@ -50297,13 +50231,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="BS205" s="3">
         <v>41024</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>123</v>
@@ -50321,16 +50255,16 @@
         <v>111</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2864</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2865</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2866</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>2229</v>
@@ -50371,19 +50305,19 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2867</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2868</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2869</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="Q206" s="3">
         <v>18645</v>
@@ -50413,7 +50347,7 @@
         <v>106</v>
       </c>
       <c r="AG206" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="AH206" s="1" t="s">
         <v>2067</v>
@@ -50458,7 +50392,7 @@
         <v>111</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="BB206" s="1">
         <v>6</v>
@@ -50467,7 +50401,7 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>114</v>
@@ -50479,7 +50413,7 @@
         <v>116</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>398</v>
@@ -50494,13 +50428,13 @@
         <v>120</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="BS206" s="3">
         <v>34808</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>123</v>
@@ -50518,16 +50452,16 @@
         <v>111</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2876</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2877</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2878</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2879</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>405</v>
@@ -50568,19 +50502,19 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2881</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2882</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="Q207" s="3">
         <v>30408</v>
@@ -50649,7 +50583,7 @@
         <v>111</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="BB207" s="1">
         <v>6</v>
@@ -50658,7 +50592,7 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>114</v>
@@ -50670,7 +50604,7 @@
         <v>116</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>1008</v>
@@ -50685,13 +50619,13 @@
         <v>102</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="BS207" s="3">
         <v>37336</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>123</v>
@@ -50709,16 +50643,16 @@
         <v>111</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2889</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2890</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2891</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2892</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>1014</v>
@@ -50759,19 +50693,19 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2894</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2895</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="Q208" s="3">
         <v>28132</v>
@@ -50843,7 +50777,7 @@
         <v>111</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="BB208" s="1">
         <v>6</v>
@@ -50852,7 +50786,7 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>114</v>
@@ -50864,7 +50798,7 @@
         <v>116</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="BI208" s="1" t="s">
         <v>795</v>
@@ -50876,7 +50810,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>123</v>
@@ -50894,16 +50828,16 @@
         <v>111</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2901</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2902</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2903</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2904</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>801</v>
@@ -50944,22 +50878,22 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2905</v>
-      </c>
-      <c r="L209" s="1" t="s">
-        <v>2906</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="Q209" s="3">
         <v>31743</v>
@@ -51040,7 +50974,7 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>114</v>
@@ -51052,7 +50986,7 @@
         <v>116</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>119</v>
@@ -51061,7 +50995,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>123</v>
@@ -51079,16 +51013,16 @@
         <v>111</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2912</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2914</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2915</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>131</v>
@@ -51129,19 +51063,19 @@
         <v>2319</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2916</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2918</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="Q210" s="3">
         <v>23750</v>
@@ -51170,12 +51104,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2920</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>106</v>
       </c>
@@ -51225,7 +51154,7 @@
         <v>111</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BB210" s="1">
         <v>6</v>
@@ -51234,7 +51163,7 @@
         <v>20</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>114</v>
@@ -51246,7 +51175,7 @@
         <v>116</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1893</v>
@@ -51258,7 +51187,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>123</v>
@@ -51270,7 +51199,7 @@
         <v>110</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>125</v>
@@ -51282,13 +51211,13 @@
         <v>1262</v>
       </c>
       <c r="CD210" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="CE210" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="CG210" s="1" t="s">
         <v>2926</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2927</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2928</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>1899</v>
@@ -51329,10 +51258,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -51356,7 +51285,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>394</v>
@@ -51410,10 +51339,10 @@
         <v>111</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -51424,13 +51353,13 @@
         <v>88</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>2586</v>
-      </c>
       <c r="E212" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>111</v>
@@ -51442,16 +51371,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>110</v>
@@ -51475,7 +51404,7 @@
         <v>106</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>394</v>
@@ -51520,7 +51449,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>125</v>
@@ -51529,10 +51458,10 @@
         <v>111</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -51567,10 +51496,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -51594,7 +51523,7 @@
         <v>106</v>
       </c>
       <c r="AG213" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="AH213" s="1" t="s">
         <v>394</v>
@@ -51648,10 +51577,10 @@
         <v>111</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -51668,7 +51597,7 @@
         <v>90</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -51680,16 +51609,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -51758,7 +51687,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>125</v>
@@ -51767,10 +51696,10 @@
         <v>111</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -51805,10 +51734,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -51886,10 +51815,10 @@
         <v>111</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51906,7 +51835,7 @@
         <v>90</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>92</v>
@@ -51918,16 +51847,16 @@
         <v>94</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -51996,7 +51925,7 @@
         <v>0</v>
       </c>
       <c r="BZ216" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="CA216" s="1" t="s">
         <v>125</v>
@@ -52005,10 +51934,10 @@
         <v>111</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -52043,10 +51972,10 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>110</v>
@@ -52124,10 +52053,10 @@
         <v>111</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="218" spans="1:87" x14ac:dyDescent="0.25">
@@ -52162,19 +52091,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2951</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2952</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2953</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="Q218" s="3">
         <v>26043</v>
@@ -52197,12 +52126,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2920</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>106</v>
       </c>
@@ -52255,7 +52179,7 @@
         <v>20</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>114</v>
@@ -52267,7 +52191,7 @@
         <v>116</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>398</v>
@@ -52282,13 +52206,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="BS218" s="3">
         <v>36306</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>123</v>
@@ -52306,16 +52230,16 @@
         <v>111</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="CD218" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="CE218" s="1" t="s">
         <v>2959</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2960</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2962</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>405</v>
@@ -52356,19 +52280,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2963</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2965</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="Q219" s="3">
         <v>29945</v>
@@ -52391,12 +52315,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2920</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>106</v>
       </c>
@@ -52452,7 +52371,7 @@
         <v>20</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>114</v>
@@ -52464,7 +52383,7 @@
         <v>116</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>119</v>
@@ -52473,7 +52392,7 @@
         <v>105</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>123</v>
@@ -52491,16 +52410,16 @@
         <v>111</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>127</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="CG219" s="1" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>131</v>
@@ -52541,19 +52460,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2973</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2975</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="Q220" s="3">
         <v>29034</v>
@@ -52579,12 +52498,7 @@
       <c r="AB220" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2920</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>106</v>
       </c>
@@ -52637,7 +52551,7 @@
         <v>20</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>114</v>
@@ -52649,7 +52563,7 @@
         <v>116</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>398</v>
@@ -52664,13 +52578,13 @@
         <v>102</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="BS220" s="3">
         <v>38234</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>123</v>
@@ -52688,16 +52602,16 @@
         <v>111</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="CG220" s="1" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>405</v>
@@ -52738,19 +52652,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2984</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2985</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2986</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="Q221" s="3">
         <v>29062</v>
@@ -52773,12 +52687,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2920</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>106</v>
       </c>
@@ -52834,7 +52743,7 @@
         <v>20</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>114</v>
@@ -52846,7 +52755,7 @@
         <v>116</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>1008</v>
@@ -52858,7 +52767,7 @@
         <v>105</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>123</v>
@@ -52876,16 +52785,16 @@
         <v>111</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2991</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2992</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2994</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>1014</v>
@@ -52926,19 +52835,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2995</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2996</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2997</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="Q222" s="3">
         <v>29181</v>
@@ -52961,12 +52870,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2920</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>106</v>
       </c>
@@ -53019,7 +52923,7 @@
         <v>20</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>114</v>
@@ -53031,7 +52935,7 @@
         <v>116</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>1022</v>
@@ -53046,13 +52950,13 @@
         <v>237</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="BS222" s="3">
         <v>37069</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>123</v>
@@ -53073,13 +52977,13 @@
         <v>812</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="CE222" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="CG222" s="1" t="s">
         <v>3003</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>3004</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>3005</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>1027</v>
@@ -53120,19 +53024,19 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>3006</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>3007</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>3008</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="Q223" s="3">
         <v>30033</v>
@@ -53155,12 +53059,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2920</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -53216,7 +53115,7 @@
         <v>20</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>114</v>
@@ -53228,7 +53127,7 @@
         <v>116</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="BI223" s="1" t="s">
         <v>1008</v>
@@ -53240,7 +53139,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>123</v>
@@ -53258,16 +53157,16 @@
         <v>111</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="CE223" s="1" t="s">
         <v>3013</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CG223" s="1" t="s">
         <v>3014</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>3016</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>1014</v>
@@ -53308,19 +53207,19 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="N224" s="1" t="s">
         <v>3017</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>3018</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>3019</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="Q224" s="3">
         <v>26843</v>
@@ -53343,12 +53242,7 @@
       <c r="AA224" s="1">
         <v>0</v>
       </c>
-      <c r="AC224" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD224" s="1" t="s">
-        <v>3021</v>
-      </c>
+      <c r="AC224" s="3"/>
       <c r="AF224" s="1" t="s">
         <v>106</v>
       </c>
@@ -53395,7 +53289,7 @@
         <v>111</v>
       </c>
       <c r="AZ224" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BB224" s="1">
         <v>6</v>
@@ -53404,7 +53298,7 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>114</v>
@@ -53416,10 +53310,10 @@
         <v>116</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>119</v>
@@ -53431,13 +53325,13 @@
         <v>237</v>
       </c>
       <c r="BR224" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BS224" s="3">
         <v>35125</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>123</v>
@@ -53455,19 +53349,19 @@
         <v>111</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="CG224" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>131</v>
@@ -53505,19 +53399,19 @@
         <v>408</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="Q225" s="3">
         <v>31362</v>
@@ -53595,7 +53489,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>116</v>
@@ -53604,7 +53498,7 @@
         <v>119</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>123</v>
@@ -53622,13 +53516,13 @@
         <v>92</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CG225" s="1" t="s">
         <v>131</v>
@@ -53672,19 +53566,19 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="Q226" s="3">
         <v>31362</v>
@@ -53762,7 +53656,7 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>116</v>
@@ -53771,7 +53665,7 @@
         <v>119</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>123</v>
@@ -53792,10 +53686,10 @@
         <v>593</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CG226" s="1" t="s">
         <v>131</v>
@@ -53839,19 +53733,19 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="Q227" s="3">
         <v>25903</v>
@@ -53932,7 +53826,7 @@
         <v>20</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BG227" s="1" t="s">
         <v>116</v>
@@ -53956,13 +53850,13 @@
         <v>111</v>
       </c>
       <c r="CC227" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="CD227" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="CG227" s="1" t="s">
         <v>131</v>
@@ -54009,10 +53903,10 @@
         <v>263</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N228" s="1" t="s">
         <v>265</v>
@@ -54042,7 +53936,7 @@
         <v>42582</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>106</v>
@@ -54099,13 +53993,13 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BI228" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>119</v>
@@ -54150,10 +54044,10 @@
         <v>276</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>131</v>
@@ -54173,7 +54067,7 @@
         <v>192</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>92</v>
@@ -54185,22 +54079,22 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="Q229" s="3">
         <v>17060</v>
@@ -54233,13 +54127,13 @@
         <v>42628</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="AH229" s="1" t="s">
         <v>140</v>
@@ -54284,22 +54178,22 @@
         <v>111</v>
       </c>
       <c r="AZ229" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="BB229" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC229" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD229" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="BH229" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>3072</v>
-      </c>
-      <c r="BB229" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC229" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD229" s="1" t="s">
-        <v>3073</v>
-      </c>
-      <c r="BH229" s="1" t="s">
-        <v>3074</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>3075</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>119</v>
@@ -54308,7 +54202,7 @@
         <v>105</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>123</v>
@@ -54317,7 +54211,7 @@
         <v>0</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>125</v>
@@ -54332,13 +54226,13 @@
         <v>127</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CH229" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>131</v>
@@ -54352,13 +54246,13 @@
         <v>88</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>111</v>
@@ -54370,22 +54264,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="Q230" s="3">
         <v>26864</v>
@@ -54415,7 +54309,7 @@
         <v>42735</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>106</v>
@@ -54469,10 +54363,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>119</v>
@@ -54484,13 +54378,13 @@
         <v>237</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BS230" s="3">
         <v>102</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>123</v>
@@ -54502,7 +54396,7 @@
         <v>110</v>
       </c>
       <c r="BZ230" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CA230" s="1" t="s">
         <v>125</v>
@@ -54511,16 +54405,16 @@
         <v>111</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="CD230" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="CE230" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="CG230" s="1" t="s">
         <v>3093</v>
-      </c>
-      <c r="CD230" s="1" t="s">
-        <v>3094</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>3095</v>
-      </c>
-      <c r="CG230" s="1" t="s">
-        <v>3096</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>131</v>
@@ -54561,16 +54455,16 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="Q231" s="3">
         <v>25379</v>
@@ -54600,7 +54494,7 @@
         <v>39800</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>249</v>
@@ -54654,10 +54548,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>119</v>
@@ -54669,13 +54563,13 @@
         <v>1770</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BS231" s="3">
         <v>35915</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>123</v>
@@ -54705,10 +54599,10 @@
         <v>463</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>131</v>
@@ -54731,7 +54625,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>111</v>
@@ -54743,22 +54637,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="Q232" s="3">
         <v>17470</v>
@@ -54788,7 +54682,7 @@
         <v>43100</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>106</v>
@@ -54845,10 +54739,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>119</v>
@@ -54857,7 +54751,7 @@
         <v>105</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>123</v>
@@ -54881,16 +54775,16 @@
         <v>111</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>131</v>
@@ -54913,7 +54807,7 @@
         <v>90</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>111</v>
@@ -54925,22 +54819,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="Q233" s="3">
         <v>23356</v>
@@ -54967,7 +54861,7 @@
         <v>43105</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>106</v>
@@ -55021,10 +54915,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>119</v>
@@ -55036,13 +54930,13 @@
         <v>102</v>
       </c>
       <c r="BR233" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BS233" s="3">
         <v>34412</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>123</v>
@@ -55051,7 +54945,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>125</v>
@@ -55060,16 +54954,16 @@
         <v>111</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>2458</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>131</v>
@@ -55086,13 +54980,13 @@
         <v>88</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>2586</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>92</v>
@@ -55104,22 +54998,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="Q234" s="3">
         <v>17726</v>
@@ -55152,7 +55046,7 @@
         <v>43312</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>249</v>
@@ -55203,7 +55097,7 @@
         <v>111</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BB234" s="1">
         <v>0</v>
@@ -55212,10 +55106,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>119</v>
@@ -55224,7 +55118,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>123</v>
@@ -55233,7 +55127,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>125</v>
@@ -55242,16 +55136,16 @@
         <v>111</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="CE234" s="1" t="s">
         <v>968</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>131</v>
@@ -55274,7 +55168,7 @@
         <v>90</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>92</v>
@@ -55286,22 +55180,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="Q235" s="3">
         <v>17041</v>
@@ -55328,7 +55222,7 @@
         <v>42735</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>106</v>
@@ -55385,10 +55279,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>119</v>
@@ -55397,7 +55291,7 @@
         <v>105</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>123</v>
@@ -55409,7 +55303,7 @@
         <v>110</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>125</v>
@@ -55418,16 +55312,16 @@
         <v>111</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="CD235" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="CE235" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="CG235" s="1" t="s">
         <v>3146</v>
-      </c>
-      <c r="CD235" s="1" t="s">
-        <v>3147</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>3148</v>
-      </c>
-      <c r="CG235" s="1" t="s">
-        <v>3149</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>131</v>
@@ -55444,13 +55338,13 @@
         <v>88</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>2586</v>
-      </c>
       <c r="E236" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>111</v>
@@ -55462,22 +55356,22 @@
         <v>94</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="Q236" s="3">
         <v>30147</v>
@@ -55500,17 +55394,12 @@
       <c r="AA236" s="1">
         <v>0</v>
       </c>
-      <c r="AC236" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD236" s="1" t="s">
-        <v>2920</v>
-      </c>
+      <c r="AC236" s="3"/>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>394</v>
@@ -55558,10 +55447,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>119</v>
@@ -55573,13 +55462,13 @@
         <v>102</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BS236" s="3">
         <v>37124</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>123</v>
@@ -55588,7 +55477,7 @@
         <v>0</v>
       </c>
       <c r="BZ236" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="CA236" s="1" t="s">
         <v>125</v>
@@ -55597,16 +55486,16 @@
         <v>111</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>131</v>
@@ -55647,16 +55536,16 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="Q237" s="3">
         <v>17821</v>
@@ -55692,13 +55581,13 @@
         <v>43388</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG237" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="AH237" s="1" t="s">
         <v>1338</v>
@@ -55743,7 +55632,7 @@
         <v>111</v>
       </c>
       <c r="AZ237" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="BB237" s="1">
         <v>0</v>
@@ -55752,10 +55641,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>119</v>
@@ -55764,7 +55653,7 @@
         <v>105</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>123</v>
@@ -55782,16 +55671,16 @@
         <v>111</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="CE237" s="1" t="s">
         <v>537</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>131</v>
@@ -55805,10 +55694,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1336</v>
@@ -55823,7 +55712,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1336</v>
@@ -55832,19 +55721,19 @@
         <v>154</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="Q238" s="3">
         <v>20466</v>
@@ -55892,7 +55781,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55925,7 +55814,7 @@
         <v>20</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BE238" s="1" t="s">
         <v>114</v>
@@ -55937,13 +55826,13 @@
         <v>116</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>123</v>
@@ -55961,16 +55850,16 @@
         <v>111</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>320</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>131</v>
@@ -55984,10 +55873,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1336</v>
@@ -56002,7 +55891,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1336</v>
@@ -56011,19 +55900,19 @@
         <v>154</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="Q239" s="3">
         <v>24006</v>
@@ -56068,7 +55957,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -56104,7 +55993,7 @@
         <v>20</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BE239" s="1" t="s">
         <v>114</v>
@@ -56116,13 +56005,13 @@
         <v>116</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>123</v>
@@ -56149,10 +56038,10 @@
         <v>1155</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>131</v>
@@ -56166,10 +56055,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1336</v>
@@ -56184,7 +56073,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1336</v>
@@ -56193,19 +56082,19 @@
         <v>154</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="Q240" s="3">
         <v>26193</v>
@@ -56250,7 +56139,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -56286,7 +56175,7 @@
         <v>20</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BE240" s="1" t="s">
         <v>114</v>
@@ -56298,13 +56187,13 @@
         <v>116</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>123</v>
@@ -56325,16 +56214,16 @@
         <v>111</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>3205</v>
-      </c>
-      <c r="CD240" s="1" t="s">
-        <v>3206</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>3207</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>3208</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>131</v>
@@ -56348,10 +56237,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1336</v>
@@ -56366,7 +56255,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1336</v>
@@ -56375,19 +56264,19 @@
         <v>154</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="Q241" s="3">
         <v>24325</v>
@@ -56468,7 +56357,7 @@
         <v>20</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BE241" s="1" t="s">
         <v>114</v>
@@ -56480,13 +56369,13 @@
         <v>116</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>123</v>
@@ -56507,7 +56396,7 @@
         <v>111</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>638</v>
@@ -56516,7 +56405,7 @@
         <v>537</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>131</v>
@@ -56530,10 +56419,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1336</v>
@@ -56548,7 +56437,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1336</v>
@@ -56557,19 +56446,19 @@
         <v>154</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="Q242" s="3">
         <v>24848</v>
@@ -56617,7 +56506,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -56653,7 +56542,7 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BE242" s="1" t="s">
         <v>114</v>
@@ -56665,13 +56554,13 @@
         <v>116</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>123</v>
@@ -56695,13 +56584,13 @@
         <v>520</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>131</v>
@@ -56715,10 +56604,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1336</v>
@@ -56733,7 +56622,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1336</v>
@@ -56742,19 +56631,19 @@
         <v>154</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="Q243" s="3">
         <v>27702</v>
@@ -56835,7 +56724,7 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BE243" s="1" t="s">
         <v>114</v>
@@ -56847,13 +56736,13 @@
         <v>116</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>123</v>
@@ -56874,16 +56763,16 @@
         <v>111</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>653</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>131</v>
@@ -56897,10 +56786,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1336</v>
@@ -56915,7 +56804,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1336</v>
@@ -56924,19 +56813,19 @@
         <v>154</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="Q244" s="3">
         <v>23289</v>
@@ -56966,7 +56855,7 @@
         <v>106</v>
       </c>
       <c r="AG244" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="AH244" s="1" t="s">
         <v>1338</v>
@@ -56984,7 +56873,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -57020,7 +56909,7 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>114</v>
@@ -57032,13 +56921,13 @@
         <v>116</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>123</v>
@@ -57059,16 +56948,16 @@
         <v>111</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>131</v>
@@ -57082,10 +56971,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1336</v>
@@ -57100,7 +56989,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1336</v>
@@ -57109,19 +56998,19 @@
         <v>154</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="Q245" s="3">
         <v>16546</v>
@@ -57169,7 +57058,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -57205,7 +57094,7 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>114</v>
@@ -57217,13 +57106,13 @@
         <v>116</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>123</v>
@@ -57247,13 +57136,13 @@
         <v>1066</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>131</v>
@@ -57267,10 +57156,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1336</v>
@@ -57285,7 +57174,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1336</v>
@@ -57294,19 +57183,19 @@
         <v>154</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="Q246" s="3">
         <v>12691</v>
@@ -57354,7 +57243,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -57390,7 +57279,7 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="BE246" s="1" t="s">
         <v>114</v>
@@ -57402,13 +57291,13 @@
         <v>116</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>123</v>
@@ -57435,10 +57324,10 @@
         <v>2283</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>131</v>
@@ -57452,10 +57341,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1336</v>
@@ -57470,7 +57359,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1336</v>
@@ -57479,19 +57368,19 @@
         <v>154</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2399</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="Q247" s="3">
         <v>23611</v>
@@ -57521,7 +57410,7 @@
         <v>106</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="AH247" s="1" t="s">
         <v>1338</v>
@@ -57536,7 +57425,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -57569,19 +57458,19 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>123</v>
@@ -57599,16 +57488,16 @@
         <v>111</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3275</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3276</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3277</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3278</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>131</v>
@@ -57622,10 +57511,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1336</v>
@@ -57640,7 +57529,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1336</v>
@@ -57649,19 +57538,19 @@
         <v>154</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>2408</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="Q248" s="3">
         <v>16452</v>
@@ -57739,19 +57628,19 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>123</v>
@@ -57772,16 +57661,16 @@
         <v>2333</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3285</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3286</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3287</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3288</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>131</v>
@@ -57795,10 +57684,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1336</v>
@@ -57813,7 +57702,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1336</v>
@@ -57822,19 +57711,19 @@
         <v>154</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="Q249" s="3">
         <v>18056</v>
@@ -57912,7 +57801,7 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>114</v>
@@ -57924,13 +57813,13 @@
         <v>116</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>123</v>
@@ -57951,13 +57840,13 @@
         <v>1277</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>131</v>
@@ -57971,10 +57860,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1336</v>
@@ -57989,7 +57878,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1336</v>
@@ -57998,19 +57887,19 @@
         <v>154</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="Q250" s="3">
         <v>26349</v>
@@ -58055,7 +57944,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -58091,7 +57980,7 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>114</v>
@@ -58103,13 +57992,13 @@
         <v>116</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>123</v>
@@ -58130,16 +58019,16 @@
         <v>111</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>131</v>
@@ -58153,10 +58042,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1336</v>
@@ -58171,7 +58060,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1336</v>
@@ -58180,19 +58069,19 @@
         <v>154</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="Q251" s="3">
         <v>30589</v>
@@ -58240,7 +58129,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -58276,7 +58165,7 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BE251" s="1" t="s">
         <v>114</v>
@@ -58288,13 +58177,13 @@
         <v>116</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>123</v>
@@ -58315,16 +58204,16 @@
         <v>111</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3317</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3318</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3319</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3320</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>131</v>
@@ -58338,10 +58227,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1336</v>
@@ -58356,7 +58245,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1336</v>
@@ -58365,19 +58254,19 @@
         <v>154</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="Q252" s="3">
         <v>27354</v>
@@ -58425,7 +58314,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -58461,7 +58350,7 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="BE252" s="1" t="s">
         <v>114</v>
@@ -58473,13 +58362,13 @@
         <v>116</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>123</v>
@@ -58500,16 +58389,16 @@
         <v>111</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3328</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3329</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3330</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3331</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>131</v>
@@ -58523,10 +58412,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1336</v>
@@ -58541,7 +58430,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1336</v>
@@ -58550,19 +58439,19 @@
         <v>154</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="Q253" s="3">
         <v>13756</v>
@@ -58643,7 +58532,7 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="BE253" s="1" t="s">
         <v>114</v>
@@ -58655,13 +58544,13 @@
         <v>116</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>123</v>
@@ -58682,16 +58571,16 @@
         <v>111</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>225</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>131</v>
@@ -58705,10 +58594,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1336</v>
@@ -58723,7 +58612,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1336</v>
@@ -58732,19 +58621,19 @@
         <v>154</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="Q254" s="3">
         <v>26074</v>
@@ -58792,7 +58681,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -58828,7 +58717,7 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="BE254" s="1" t="s">
         <v>114</v>
@@ -58840,19 +58729,19 @@
         <v>116</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>123</v>
       </c>
       <c r="BW254" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="BX254" s="1">
         <v>0</v>
@@ -58870,16 +58759,16 @@
         <v>111</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>131</v>
@@ -58893,10 +58782,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1336</v>
@@ -58911,7 +58800,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1336</v>
@@ -58920,19 +58809,19 @@
         <v>154</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="Q255" s="3">
         <v>28808</v>
@@ -58977,7 +58866,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -59013,7 +58902,7 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="BE255" s="1" t="s">
         <v>114</v>
@@ -59025,13 +58914,13 @@
         <v>116</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>123</v>
@@ -59052,16 +58941,16 @@
         <v>111</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>131</v>
@@ -59075,10 +58964,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1336</v>
@@ -59093,7 +58982,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1336</v>
@@ -59102,19 +58991,19 @@
         <v>154</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>138</v>
@@ -59135,7 +59024,7 @@
         <v>0</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>394</v>
@@ -59150,7 +59039,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -59180,7 +59069,7 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="BE256" s="1" t="s">
         <v>114</v>
@@ -59192,13 +59081,13 @@
         <v>116</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>123</v>
@@ -59216,16 +59105,16 @@
         <v>111</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>320</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>131</v>
@@ -59239,10 +59128,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1336</v>
@@ -59257,7 +59146,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1336</v>
@@ -59266,19 +59155,19 @@
         <v>154</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="R257" s="1" t="s">
         <v>138</v>
@@ -59356,7 +59245,7 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="BE257" s="1" t="s">
         <v>114</v>
@@ -59368,13 +59257,13 @@
         <v>116</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>123</v>
@@ -59392,16 +59281,16 @@
         <v>111</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3379</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3380</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3381</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3382</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>131</v>
@@ -59415,10 +59304,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1336</v>
@@ -59433,7 +59322,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1336</v>
@@ -59442,19 +59331,19 @@
         <v>154</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="Q258" s="3">
         <v>29466</v>
@@ -59535,7 +59424,7 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="BE258" s="1" t="s">
         <v>114</v>
@@ -59547,13 +59436,13 @@
         <v>116</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>123</v>
@@ -59571,16 +59460,16 @@
         <v>111</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3390</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3391</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3392</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3393</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>131</v>
@@ -59594,10 +59483,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1336</v>
@@ -59612,7 +59501,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1336</v>
@@ -59621,22 +59510,22 @@
         <v>154</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="Q259" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>138</v>
@@ -59678,7 +59567,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -59711,7 +59600,7 @@
         <v>20</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="BE259" s="1" t="s">
         <v>114</v>
@@ -59723,13 +59612,13 @@
         <v>116</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>123</v>
@@ -59747,16 +59636,16 @@
         <v>111</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3402</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3403</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3404</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3405</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>131</v>
@@ -59797,16 +59686,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -59839,7 +59728,7 @@
         <v>43980</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -59896,7 +59785,7 @@
         <v>1977</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>119</v>
@@ -59908,13 +59797,13 @@
         <v>1770</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BS260" s="3">
         <v>35915</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>123</v>
@@ -59938,7 +59827,7 @@
         <v>463</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="CG260" s="1" t="s">
         <v>1978</v>
@@ -59951,6 +59840,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI260" xr:uid="{D0000490-173D-488F-9525-0E6063819BD1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>